--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3268172.015786638</v>
+        <v>3376323.108700931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283171</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8057654.690091304</v>
+        <v>8063697.700678562</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>82.15661472568338</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>85.24054572006015</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26.80771286579227</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>203.739634026906</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>222.7433652720014</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.84324036510444</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>98.81171010369806</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>54.00427437484942</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1074,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>120.7740905403535</v>
+        <v>163.8894252833869</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>21.052164118211</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>34.98723076369722</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444136</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>100.7815116657779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>20.38427178197973</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.16086499485264</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>20.43112068613552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>162.8435308896552</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695513</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,16 +2140,16 @@
         <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.602497644402212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>213.8732106000955</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.619672595761137</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>137.9792024346631</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>70.30034983101397</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>23.62554568141267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H31" t="n">
-        <v>105.3219429113318</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>44.30292280757659</v>
       </c>
       <c r="G34" t="n">
-        <v>42.71572132711237</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634812</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>6.228861054224671</v>
       </c>
       <c r="U37" t="n">
-        <v>139.6152205166465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>180.3302385618283</v>
+        <v>140.4383865840208</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>102.9012384238816</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>104.7950049175967</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576156</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>86.60069024005273</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6687625091754</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1200.95620828083</v>
+        <v>759.7040301531875</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.969728759938</v>
+        <v>759.7040301531875</v>
       </c>
       <c r="D2" t="n">
         <v>759.7040301531875</v>
@@ -4328,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1889.211857463235</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1536.443202193121</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1536.443202193121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.556048344952</v>
+        <v>1146.303870217309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>483.0441129489466</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297104</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.3550174069666</v>
+        <v>515.8118151303141</v>
       </c>
       <c r="C4" t="n">
-        <v>376.3550174069666</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D4" t="n">
-        <v>226.2383779946308</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E4" t="n">
-        <v>78.32528441223772</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>78.32528441223772</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>78.32528441223772</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4488,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>1207.670029141045</v>
       </c>
       <c r="W4" t="n">
-        <v>825.137147448514</v>
+        <v>918.252859104084</v>
       </c>
       <c r="X4" t="n">
-        <v>597.1475965504967</v>
+        <v>918.252859104084</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.3550174069666</v>
+        <v>697.4602799605539</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.650691388938</v>
+        <v>1134.226501951988</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.650691388938</v>
+        <v>765.2639850115761</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.650691388938</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E5" t="n">
-        <v>871.8624387906939</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.25053145306</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.25053145306</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.25053145306</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.25053145306</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103101</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.6385609043616</v>
+        <v>1037.376328260589</v>
       </c>
       <c r="C7" t="n">
-        <v>572.6385609043616</v>
+        <v>868.4401453326821</v>
       </c>
       <c r="D7" t="n">
-        <v>422.5219214920259</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>422.5219214920259</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478917</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W7" t="n">
-        <v>793.4311400478917</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X7" t="n">
-        <v>793.4311400478917</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.6385609043616</v>
+        <v>1219.024793090829</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>639.4419116165409</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>639.4419116165409</v>
       </c>
       <c r="D8" t="n">
-        <v>950.1045973369964</v>
+        <v>639.4419116165409</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1026.041751680663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>835.1063603656602</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>666.1701774377533</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>516.0535380254175</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>368.1404444430244</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>221.2504969451141</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>221.2504969451141</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>72.51159880862028</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1016.7548251959</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.4712640439261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>532.5350811160193</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057736</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.901858915713</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.912308017696</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.1197288741656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,22 +5299,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5323,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263525</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356184</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232828</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408898</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429797</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578598</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611861</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263525</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5498,64 +5500,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400746</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400746</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277391</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277391</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>343.099465685178</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713844</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703141</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5768,22 +5770,22 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263525</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356184</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232828</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408898</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429797</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578598</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855606</v>
+        <v>1981.028999426865</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199804</v>
+        <v>1691.953772771063</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993917</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956956</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956956</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813426</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.1865537762009</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>781.2503708482941</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232828</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>631.70124434089</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854708</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817748</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919731</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537762009</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421608</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>199.7675539570408</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4852666057155</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F31" t="n">
-        <v>449.4852666057155</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G31" t="n">
-        <v>282.2891673205955</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6785,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>3240.397708662309</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>3071.461525734402</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>2921.344886322066</v>
       </c>
       <c r="E34" t="n">
-        <v>365.9405071576781</v>
+        <v>2773.431792739673</v>
       </c>
       <c r="F34" t="n">
-        <v>219.0505596597677</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>3422.046173492548</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951538</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3192.420589669523</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C37" t="n">
-        <v>3023.484406741616</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4507.978318053498</v>
+        <v>4434.640835463249</v>
       </c>
       <c r="U37" t="n">
-        <v>4366.952842784158</v>
+        <v>4145.565608807447</v>
       </c>
       <c r="V37" t="n">
-        <v>4112.268354578271</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="W37" t="n">
-        <v>3822.85118454131</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X37" t="n">
-        <v>3594.861633643293</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y37" t="n">
-        <v>3374.069054499763</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4471.231687421536</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>4471.231687421536</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>4216.547199215649</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>3927.130029178688</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912099</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2985.713220456423</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>2985.713220456423</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>2985.713220456423</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>2837.80012687403</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>2690.910179376119</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2523.714080090999</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>2091.209005166763</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>1802.133778510961</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430193</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y43" t="n">
-        <v>3167.361685286663</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7633,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,22 +7663,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.53722908186</v>
+        <v>3114.186543342963</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153953</v>
+        <v>3114.186543342963</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741617</v>
+        <v>2964.069903930628</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159224</v>
+        <v>2816.156810348235</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398594</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421536</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>4182.156460765734</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>3927.471972559847</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W46" t="n">
-        <v>3927.471972559847</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912099</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>35.91627445172441</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>186.5911984019037</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>70.03064962107896</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-2.95569748243736e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-1.041870636945978e-12</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-9.281837992243618e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.81817176293623</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>185.741486670813</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.423788357242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>124.9899273367955</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>54.56191943763307</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.2294825375349</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.532239727192774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.9958004224511</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>78.31512318719838</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H31" t="n">
-        <v>34.97276993489206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>101.1181252153547</v>
       </c>
       <c r="G34" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>211.1765892730636</v>
       </c>
       <c r="U37" t="n">
-        <v>146.5692538725976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>45.37941682720881</v>
+        <v>85.27126880501635</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>37.39347442234231</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>112.6104454096916</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>58.82035778287852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.04089287986173</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>704594.8879997765</v>
+        <v>711131.0082509544</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692783.993351641</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210055</v>
@@ -26332,28 +26334,28 @@
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210056</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210057</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.403233071</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719825</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171978</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719792</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171981</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>7507.36846171964</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.36846171964</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.3684617197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.3684617197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7507.368461719691</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601865.8266846545</v>
+        <v>-601865.8266846542</v>
       </c>
       <c r="C6" t="n">
-        <v>512885.9568912657</v>
+        <v>512885.9568912653</v>
       </c>
       <c r="D6" t="n">
-        <v>351682.1086430534</v>
+        <v>512885.9568912652</v>
       </c>
       <c r="E6" t="n">
-        <v>292389.5796280233</v>
+        <v>110316.5998108325</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.0414353784</v>
+        <v>617802.0414353787</v>
       </c>
       <c r="G6" t="n">
+        <v>617802.0414353787</v>
+      </c>
+      <c r="H6" t="n">
         <v>617802.0414353786</v>
       </c>
-      <c r="H6" t="n">
-        <v>617802.0414353785</v>
-      </c>
       <c r="I6" t="n">
-        <v>617802.0414353784</v>
+        <v>617802.0414353786</v>
       </c>
       <c r="J6" t="n">
         <v>450196.8636253963</v>
       </c>
       <c r="K6" t="n">
+        <v>617802.0414353786</v>
+      </c>
+      <c r="L6" t="n">
         <v>617802.0414353788</v>
       </c>
-      <c r="L6" t="n">
-        <v>569508.0714271879</v>
-      </c>
       <c r="M6" t="n">
-        <v>532747.0134998672</v>
+        <v>485194.747706452</v>
       </c>
       <c r="N6" t="n">
-        <v>617802.0414353788</v>
+        <v>617802.0414353785</v>
       </c>
       <c r="O6" t="n">
-        <v>617802.0414353787</v>
+        <v>617802.0414353785</v>
       </c>
       <c r="P6" t="n">
         <v>617802.0414353787</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>283.1162770453242</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>242.5117127500748</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4437962893366</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>48.398009296922</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>131.9396763486816</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.032805376607</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>49.80376291451429</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>91.41677364808183</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>261.1562795319083</v>
+        <v>218.0409447888749</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.74443108568957</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>217.1504125601308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31840,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3857163736981</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>206.1632388819608</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.960367665998</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>381.2855185329316</v>
       </c>
       <c r="O27" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,7 +33748,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936921</v>
+        <v>288.8958573929172</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9428233593773</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.1786946453892</v>
       </c>
       <c r="L3" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>402.847606733765</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>577.7882979947777</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>319.7101787446113</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35486,13 +35488,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>453.2516824516798</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="O27" t="n">
-        <v>510.7887951929326</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103587</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>81.10138438501832</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376323.108700931</v>
+        <v>3372185.951450779</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>327.3333258420384</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>85.24054572006015</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>98.98102224012321</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>203.739634026906</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>53.83847841953917</v>
       </c>
       <c r="D5" t="n">
-        <v>222.7433652720014</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>98.81171010369806</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>198.3380435347398</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>163.8894252833869</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>182.9377227717314</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>21.052164118211</v>
+        <v>50.16320161686823</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>144.4286493356916</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>162.7401913819093</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>162.8435308896552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>213.8732106000955</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>70.30034983101397</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>44.30292280757659</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
-        <v>6.228861054224671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>140.4383865840208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3951,19 +3951,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>104.7950049175967</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738896</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>86.60069024005273</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>38.19083539427204</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759.7040301531875</v>
+        <v>1116.060225937135</v>
       </c>
       <c r="C2" t="n">
-        <v>759.7040301531875</v>
+        <v>747.0977089967232</v>
       </c>
       <c r="D2" t="n">
-        <v>759.7040301531875</v>
+        <v>388.8320103899727</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549433</v>
+        <v>388.8320103899727</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>381.8865096407692</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1889.211857463235</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1536.443202193121</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>1536.443202193121</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y2" t="n">
-        <v>1146.303870217309</v>
+        <v>1502.660066001257</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489466</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.8118151303141</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1207.670029141045</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>918.252859104084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>918.252859104084</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.4602799605539</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.226501951988</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="C5" t="n">
-        <v>765.2639850115761</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570292</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570292</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.226501951988</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>599.4122767260732</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1037.376328260589</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="C7" t="n">
-        <v>868.4401453326821</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234359</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234359</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1439.817372234359</v>
+        <v>539.0918561847483</v>
       </c>
       <c r="Y7" t="n">
-        <v>1219.024793090829</v>
+        <v>338.7503980688494</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.4419116165409</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>639.4419116165409</v>
+        <v>1806.776971395621</v>
       </c>
       <c r="D8" t="n">
-        <v>639.4419116165409</v>
+        <v>1448.51127278887</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1062.723020190626</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>651.7371154010186</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>236.0323651253075</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656474</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="Y8" t="n">
-        <v>1026.041751680663</v>
+        <v>2562.339328400154</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300791</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476953</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>835.1063603656602</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>666.1701774377533</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>516.0535380254175</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>368.1404444430244</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="F10" t="n">
-        <v>221.2504969451141</v>
+        <v>250.6555853275961</v>
       </c>
       <c r="G10" t="n">
-        <v>221.2504969451141</v>
+        <v>250.6555853275961</v>
       </c>
       <c r="H10" t="n">
-        <v>72.51159880862028</v>
+        <v>101.9166871911023</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,37 +4977,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.744376093917</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1016.7548251959</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>1016.7548251959</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888043</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2032.574130447511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1743.498903791709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1488.814415585822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1199.397245548862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1981.028999426865</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1691.953772771063</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1437.269284565176</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3012.408157764291</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3012.408157764291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738061</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.056622594531</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6724,28 +6724,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3240.397708662309</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3071.461525734402</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2921.344886322066</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2773.431792739673</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3642.838752636078</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3422.046173492548</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4434.640835463249</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4145.565608807447</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3890.88112060156</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3890.88112060156</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3662.891569703542</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560012</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.841029837709</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.282073811479</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.4894946679487</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2091.209005166763</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1802.133778510961</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V43" t="n">
-        <v>1547.449290305074</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407056</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7742,7 +7742,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3114.186543342963</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>3114.186543342963</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>2964.069903930628</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>2816.156810348235</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W46" t="n">
-        <v>3744.61713821475</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X46" t="n">
-        <v>3516.627587316733</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y46" t="n">
-        <v>3295.835008173203</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184739</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.45443753892954</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>70.03064962107896</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.95569748243736e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.26924431238921e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.041870636945978e-12</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-9.281837992243618e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.81817176293623</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>54.56191943763307</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.532239727192774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>78.31512318719838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>101.1181252153547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
-        <v>211.1765892730636</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>85.27126880501635</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>112.6104454096916</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>101.1181252153545</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>58.82035778287852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>213.946807929556</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778542</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778542</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210056</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.174002043455512e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719708</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26435,28 +26435,28 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719632</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719598</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719638</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719668</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26527,43 +26527,43 @@
         <v>512885.9568912653</v>
       </c>
       <c r="D6" t="n">
-        <v>512885.9568912652</v>
+        <v>512885.9568912657</v>
       </c>
       <c r="E6" t="n">
-        <v>110316.5998108325</v>
+        <v>109969.2205564754</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.0414353787</v>
+        <v>617454.6621810214</v>
       </c>
       <c r="G6" t="n">
-        <v>617802.0414353787</v>
+        <v>617454.6621810211</v>
       </c>
       <c r="H6" t="n">
-        <v>617802.0414353786</v>
+        <v>617454.6621810218</v>
       </c>
       <c r="I6" t="n">
-        <v>617802.0414353786</v>
+        <v>617454.6621810215</v>
       </c>
       <c r="J6" t="n">
-        <v>450196.8636253963</v>
+        <v>449849.4843710393</v>
       </c>
       <c r="K6" t="n">
-        <v>617802.0414353786</v>
+        <v>617454.6621810213</v>
       </c>
       <c r="L6" t="n">
-        <v>617802.0414353788</v>
+        <v>617454.6621810214</v>
       </c>
       <c r="M6" t="n">
-        <v>485194.747706452</v>
+        <v>484847.3684520948</v>
       </c>
       <c r="N6" t="n">
-        <v>617802.0414353785</v>
+        <v>617454.6621810218</v>
       </c>
       <c r="O6" t="n">
-        <v>617802.0414353785</v>
+        <v>617454.6621810219</v>
       </c>
       <c r="P6" t="n">
-        <v>617802.0414353787</v>
+        <v>617454.6621810216</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.71750255431939e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,29 +26959,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241348</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241345</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000394</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.71750255431939e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>84.21437693091553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>242.5117127500748</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>80.85095794181409</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>48.398009296922</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>311.4344133514684</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9396763486816</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>49.80376291451429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>20.24660981735497</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>218.0409447888749</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>118.080829790674</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.74443108568957</v>
+        <v>54.63339358703235</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,19 +28067,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,16 +31688,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,13 +31840,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>206.1632388819608</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33022,10 +33022,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>574.2721069128556</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33259,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954392</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33283,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453892</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>544.5140226420062</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>304.1347981767797</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>319.7101787446113</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>79.32561221529411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121058</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37554,7 +37554,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,19 +37630,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37876,7 +37876,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3372185.951450779</v>
+        <v>3373946.481753564</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>327.3333258420384</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64.74037294062187</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.98102224012321</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.95313829082776</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>53.83847841953917</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>298.9400423067793</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>84.54998538654559</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.3380435347398</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>182.9377227717314</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156799</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>31.10811072719354</v>
       </c>
       <c r="I10" t="n">
-        <v>50.16320161686823</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>162.7401913819093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>105.0006820737984</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>122.8704329402511</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>185.0663491738896</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>38.19083539427204</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.060225937135</v>
+        <v>862.4791652013141</v>
       </c>
       <c r="C2" t="n">
-        <v>747.0977089967232</v>
+        <v>493.5166482609024</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8320103899727</v>
+        <v>135.2509496541519</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8320103899727</v>
+        <v>135.2509496541519</v>
       </c>
       <c r="F2" t="n">
-        <v>381.8865096407692</v>
+        <v>128.3054489049484</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>116.6411026696414</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001257</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001257</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554979</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>745.9401786091673</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>745.9401786091673</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>360.1519260109231</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>353.2064252617196</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260732</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>136.6508122109784</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4770,7 +4770,7 @@
         <v>539.0918561847483</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.7503980688494</v>
+        <v>318.2992770412181</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395621</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.51127278887</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190626</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010186</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0323651253075</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400154</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400154</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>590.20497511435</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458216</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>397.5455328255065</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="F10" t="n">
-        <v>250.6555853275961</v>
+        <v>250.6555853275968</v>
       </c>
       <c r="G10" t="n">
-        <v>250.6555853275961</v>
+        <v>82.6691206358754</v>
       </c>
       <c r="H10" t="n">
-        <v>101.9166871911023</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5047,22 +5047,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.363037697518</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
         <v>402.7245934908939</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,40 +6147,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1491.508541327549</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
         <v>1767.889897446606</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2322.851535155764</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2103.250070178706</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1814.174843522904</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,22 +6718,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6922,37 +6922,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,40 +7162,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1790.525374274257</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184739</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>6.45443753892954</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.26924431238921e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.4047682534898</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>58.15585306139351</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778542</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778545</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778544</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210052</v>
@@ -26346,16 +26346,16 @@
         <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,34 +26365,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>6.174002043455512e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719708</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26438,16 +26438,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719598</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-601865.8266846542</v>
       </c>
       <c r="C6" t="n">
-        <v>512885.9568912653</v>
+        <v>512885.9568912657</v>
       </c>
       <c r="D6" t="n">
-        <v>512885.9568912657</v>
+        <v>512885.9568912652</v>
       </c>
       <c r="E6" t="n">
-        <v>109969.2205564754</v>
+        <v>110281.8618853978</v>
       </c>
       <c r="F6" t="n">
-        <v>617454.6621810214</v>
+        <v>617767.3035099425</v>
       </c>
       <c r="G6" t="n">
-        <v>617454.6621810211</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="H6" t="n">
-        <v>617454.6621810218</v>
+        <v>617767.303509943</v>
       </c>
       <c r="I6" t="n">
-        <v>617454.6621810215</v>
+        <v>617767.3035099431</v>
       </c>
       <c r="J6" t="n">
-        <v>449849.4843710393</v>
+        <v>450162.1256999601</v>
       </c>
       <c r="K6" t="n">
-        <v>617454.6621810213</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="L6" t="n">
-        <v>617454.6621810214</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="M6" t="n">
-        <v>484847.3684520948</v>
+        <v>485160.0097810162</v>
       </c>
       <c r="N6" t="n">
-        <v>617454.6621810218</v>
+        <v>617767.3035099428</v>
       </c>
       <c r="O6" t="n">
-        <v>617454.6621810219</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="P6" t="n">
-        <v>617454.6621810216</v>
+        <v>617767.3035099428</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.71750255431939e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.71750255431939e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>84.21437693091553</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>236.2781796217835</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.85095794181409</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.631515061267</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>311.4344133514684</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>112.6076604661747</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.24660981735499</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.24660981735497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>118.080829790674</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627891</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>116.1433984279353</v>
       </c>
       <c r="I10" t="n">
-        <v>54.63339358703235</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201451</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>574.2721069128556</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3420541567482</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>171.7382405950817</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>592.5148541563236</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420062</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>304.1347981767797</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215494</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402709</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>431.6758624684112</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>97.00034207341486</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>37.7638331807514</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
